--- a/DataSet/Updated_Records.xlsx
+++ b/DataSet/Updated_Records.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\Research_Methodology\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\Research_Methodology\Electricity-Demand-Time-Series-Analysis-\DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65062EE-E5B6-4252-BA67-1A42FD38D876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EC9D99-A27C-4FA1-8319-005EE2564EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1E3BE635-FEE4-4FF4-A6E0-897AC5A854C9}"/>
   </bookViews>
@@ -392,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B4FE8C-F47C-498F-A8CE-B47103B915C9}">
-  <dimension ref="A1:H474"/>
+  <dimension ref="A1:H473"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A463" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
+      <selection activeCell="F402" sqref="F402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4053,618 +4053,609 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
-        <v>43101</v>
+        <v>43466</v>
       </c>
       <c r="B398">
-        <v>129.40479999999999</v>
-      </c>
-      <c r="E398" s="1"/>
+        <v>109.52</v>
+      </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B399">
-        <v>109.52</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B400">
-        <v>99.98</v>
+        <v>116.03</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B401">
-        <v>116.03</v>
+        <v>118.25</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B402">
-        <v>118.25</v>
+        <v>128.38999999999999</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B403">
-        <v>128.38999999999999</v>
+        <v>125.91</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B404">
-        <v>125.91</v>
+        <v>123.91</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B405">
-        <v>123.91</v>
+        <v>120.26</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B406">
-        <v>120.26</v>
+        <v>115.18</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B407">
-        <v>115.18</v>
+        <v>105.83</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B408">
-        <v>105.83</v>
+        <v>101.78</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B409">
-        <v>101.78</v>
+        <v>109.37</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B410">
-        <v>109.37</v>
+        <v>113.14</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B411">
-        <v>113.14</v>
+        <v>111.55</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B412">
-        <v>111.55</v>
+        <v>106.64</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B413">
-        <v>106.64</v>
+        <v>91.28</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B414">
-        <v>91.28</v>
+        <v>109.54</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B415">
-        <v>109.54</v>
+        <v>113.46</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B416">
-        <v>113.46</v>
+        <v>120.8</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B417">
-        <v>120.8</v>
+        <v>118.11</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B418">
-        <v>118.11</v>
+        <v>120.81</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B419">
-        <v>120.81</v>
+        <v>117.77</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B420">
-        <v>117.77</v>
+        <v>105.28</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B421">
-        <v>105.28</v>
+        <v>114.77</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B422">
-        <v>114.77</v>
+        <v>119.11</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B423">
-        <v>119.11</v>
+        <v>111.58</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B424">
-        <v>111.58</v>
+        <v>130.46</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B425">
-        <v>130.46</v>
+        <v>125.97</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B426">
-        <v>125.97</v>
+        <v>117.37</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B427">
-        <v>117.37</v>
+        <v>122.68</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B428">
-        <v>122.68</v>
+        <v>134.19</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B429">
-        <v>134.19</v>
+        <v>137.36000000000001</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B430">
-        <v>137.36000000000001</v>
+        <v>122.24</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B431">
-        <v>122.24</v>
+        <v>121.8</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B432">
-        <v>121.8</v>
+        <v>107.63</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B433">
-        <v>107.63</v>
+        <v>118.5</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B434">
-        <v>118.5</v>
+        <v>120.13</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B435">
-        <v>120.13</v>
+        <v>116.66</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B436">
-        <v>116.66</v>
+        <v>138.51</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B437">
-        <v>138.51</v>
+        <v>141.12</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B438">
-        <v>141.12</v>
+        <v>145.16</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B439">
-        <v>145.16</v>
+        <v>143.19</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B440">
-        <v>143.19</v>
+        <v>137.59</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B441">
-        <v>137.59</v>
+        <v>139.16999999999999</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B442">
-        <v>139.16999999999999</v>
+        <v>136.43</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B443">
-        <v>136.43</v>
+        <v>123.31</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B444">
-        <v>123.31</v>
+        <v>121.36</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B445">
-        <v>121.36</v>
+        <v>130.36000000000001</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B446">
-        <v>130.36000000000001</v>
+        <v>135.30000000000001</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B447">
-        <v>135.30000000000001</v>
+        <v>126.08</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B448">
-        <v>126.08</v>
+        <v>134.91999999999999</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B449">
-        <v>134.91999999999999</v>
+        <v>139.06</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B450">
-        <v>139.06</v>
+        <v>145.83000000000001</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B451">
-        <v>145.83000000000001</v>
+        <v>148.44</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B452">
-        <v>148.44</v>
+        <v>147.58000000000001</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B453">
-        <v>147.58000000000001</v>
+        <v>159.37</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B454">
-        <v>159.37</v>
+        <v>148.83000000000001</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B455">
-        <v>148.83000000000001</v>
+        <v>147.96</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B456">
-        <v>147.96</v>
+        <v>127.78</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B457">
-        <v>127.78</v>
+        <v>131.44999999999999</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B458">
-        <v>131.44999999999999</v>
+        <v>142.31</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B459">
-        <v>142.31</v>
+        <v>134.82</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B460">
-        <v>134.82</v>
+        <v>147.01</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B461">
-        <v>147.01</v>
+        <v>152.94</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B462">
-        <v>152.94</v>
+        <v>165.83</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B463">
-        <v>165.83</v>
+        <v>161.30000000000001</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B464">
-        <v>161.30000000000001</v>
+        <v>159.32</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B465">
-        <v>159.32</v>
+        <v>153.74</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B466">
-        <v>153.74</v>
+        <v>149.84</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B467">
-        <v>149.84</v>
+        <v>150.37</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B468">
-        <v>150.37</v>
+        <v>133.51</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B469">
-        <v>133.51</v>
+        <v>139.72</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B470">
-        <v>139.72</v>
+        <v>145.94</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
-        <v>45658</v>
+        <v>45689</v>
       </c>
       <c r="B471">
-        <v>145.94</v>
+        <v>140.01</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
-        <v>45689</v>
+        <v>45717</v>
       </c>
       <c r="B472">
-        <v>140.01</v>
+        <v>159.87</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
-        <v>45717</v>
+        <v>45748</v>
       </c>
       <c r="B473">
-        <v>159.87</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A474" s="1">
-        <v>45748</v>
-      </c>
-      <c r="B474">
         <v>155.87</v>
       </c>
     </row>
